--- a/new_modules/Summary_2023-05-15_L2A.xlsx
+++ b/new_modules/Summary_2023-05-15_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1264.683349609375</v>
+        <v>1283.827514648438</v>
       </c>
       <c r="C2">
-        <v>0.9487</v>
+        <v>0.9631</v>
       </c>
       <c r="D2">
-        <v>0.9151999950408936</v>
+        <v>0.9355000257492065</v>
       </c>
       <c r="E2">
-        <v>1.48360002040863</v>
+        <v>1.523900032043457</v>
       </c>
       <c r="F2">
-        <v>0.7127000093460083</v>
+        <v>0.7835999727249146</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.7662</v>
+        <v>0.9457</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1286.348510742188</v>
+        <v>1173.229248046875</v>
       </c>
       <c r="C3">
-        <v>1.0291</v>
+        <v>0.9386</v>
       </c>
       <c r="D3">
-        <v>0.9418</v>
+        <v>0.9069</v>
       </c>
       <c r="E3">
-        <v>2.035300016403198</v>
+        <v>1.295799970626831</v>
       </c>
       <c r="F3">
-        <v>0.6187999844551086</v>
+        <v>0.6941999793052673</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>1.0019</v>
+        <v>0.6929</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>872.8358764648438</v>
+        <v>810.2658081054688</v>
       </c>
       <c r="C4">
-        <v>1.0197</v>
+        <v>0.9466</v>
       </c>
       <c r="D4">
-        <v>0.9417</v>
+        <v>0.9185</v>
       </c>
       <c r="E4">
-        <v>2.197799921035767</v>
+        <v>1.256600022315979</v>
       </c>
       <c r="F4">
-        <v>0.7113999724388123</v>
+        <v>0.8109999895095825</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>1.0009</v>
+        <v>0.7953</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>831.4561767578125</v>
+        <v>875.7376708984375</v>
       </c>
       <c r="C5">
-        <v>0.8771</v>
+        <v>0.9238</v>
       </c>
       <c r="D5">
-        <v>0.8718</v>
+        <v>0.9207</v>
       </c>
       <c r="E5">
-        <v>1.308500051498413</v>
+        <v>1.122599959373474</v>
       </c>
       <c r="F5">
-        <v>0.5625</v>
+        <v>0.6571000218391418</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.3819</v>
+        <v>0.8149</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1116.319213867188</v>
+        <v>1157.67822265625</v>
       </c>
       <c r="C6">
-        <v>0.8832</v>
+        <v>0.9159</v>
       </c>
       <c r="D6">
-        <v>0.8754999999999999</v>
+        <v>0.9154</v>
       </c>
       <c r="E6">
-        <v>1.193400025367737</v>
+        <v>1.10669994354248</v>
       </c>
       <c r="F6">
-        <v>0.6592000126838684</v>
+        <v>0.7559999823570251</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.4149</v>
+        <v>0.7679</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>873.4061279296875</v>
+        <v>905.7750244140625</v>
       </c>
       <c r="C7">
-        <v>0.8796</v>
+        <v>0.9122</v>
       </c>
       <c r="D7">
-        <v>0.8737999796867371</v>
+        <v>0.9099000096321106</v>
       </c>
       <c r="E7">
-        <v>1.095000028610229</v>
+        <v>1.018900036811829</v>
       </c>
       <c r="F7">
-        <v>0.7121000289916992</v>
+        <v>0.8507999777793884</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.4</v>
+        <v>0.7193000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>930.0269165039062</v>
+        <v>1006.508422851562</v>
       </c>
       <c r="C8">
-        <v>0.8334</v>
+        <v>0.9019</v>
       </c>
       <c r="D8">
-        <v>0.8296</v>
+        <v>0.9013</v>
       </c>
       <c r="E8">
-        <v>1.138499975204468</v>
+        <v>1.00820004940033</v>
       </c>
       <c r="F8">
-        <v>0.7024999856948853</v>
+        <v>0.8295000195503235</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.0078</v>
+        <v>0.6435999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7175.076171875</v>
+        <v>7213.021484375</v>
       </c>
       <c r="C9">
-        <v>0.9248</v>
+        <v>0.9296</v>
       </c>
       <c r="D9">
-        <v>0.885</v>
+        <v>0.9121</v>
       </c>
       <c r="E9">
-        <v>2.197799921035767</v>
+        <v>1.523900032043457</v>
       </c>
       <c r="F9">
-        <v>0.5625</v>
+        <v>0.6571000218391418</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>3.9736</v>
+        <v>5.379600000000001</v>
       </c>
     </row>
   </sheetData>

--- a/new_modules/Summary_2023-05-15_L2A.xlsx
+++ b/new_modules/Summary_2023-05-15_L2A.xlsx
@@ -456,25 +456,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1283.827514648438</v>
+        <v>1264.4404296875</v>
       </c>
       <c r="C2">
-        <v>0.9631</v>
+        <v>0.9486</v>
       </c>
       <c r="D2">
-        <v>0.9355000257492065</v>
+        <v>0.9150000214576721</v>
       </c>
       <c r="E2">
-        <v>1.523900032043457</v>
+        <v>1.483399987220764</v>
       </c>
       <c r="F2">
-        <v>0.7835999727249146</v>
+        <v>0.7125999927520752</v>
       </c>
       <c r="G2">
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>0.9457</v>
+        <v>0.7645999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -482,25 +482,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>1173.229248046875</v>
+        <v>1286.101318359375</v>
       </c>
       <c r="C3">
-        <v>0.9386</v>
+        <v>1.0289</v>
       </c>
       <c r="D3">
-        <v>0.9069</v>
+        <v>0.9416</v>
       </c>
       <c r="E3">
-        <v>1.295799970626831</v>
+        <v>2.034899950027466</v>
       </c>
       <c r="F3">
-        <v>0.6941999793052673</v>
+        <v>0.6187000274658203</v>
       </c>
       <c r="G3">
         <v>12.5</v>
       </c>
       <c r="H3">
-        <v>0.6929</v>
+        <v>1.0003</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -508,25 +508,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>810.2658081054688</v>
+        <v>872.668212890625</v>
       </c>
       <c r="C4">
-        <v>0.9466</v>
+        <v>1.0195</v>
       </c>
       <c r="D4">
-        <v>0.9185</v>
+        <v>0.9415</v>
       </c>
       <c r="E4">
-        <v>1.256600022315979</v>
+        <v>2.197400093078613</v>
       </c>
       <c r="F4">
-        <v>0.8109999895095825</v>
+        <v>0.7113000154495239</v>
       </c>
       <c r="G4">
         <v>8.56</v>
       </c>
       <c r="H4">
-        <v>0.7953</v>
+        <v>0.9993</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -534,25 +534,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>875.7376708984375</v>
+        <v>831.2965087890625</v>
       </c>
       <c r="C5">
-        <v>0.9238</v>
+        <v>0.8769</v>
       </c>
       <c r="D5">
-        <v>0.9207</v>
+        <v>0.8716</v>
       </c>
       <c r="E5">
-        <v>1.122599959373474</v>
+        <v>1.308200001716614</v>
       </c>
       <c r="F5">
-        <v>0.6571000218391418</v>
+        <v>0.5623999834060669</v>
       </c>
       <c r="G5">
         <v>9.48</v>
       </c>
       <c r="H5">
-        <v>0.8149</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -560,25 +560,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>1157.67822265625</v>
+        <v>1116.104736328125</v>
       </c>
       <c r="C6">
-        <v>0.9159</v>
+        <v>0.883</v>
       </c>
       <c r="D6">
-        <v>0.9154</v>
+        <v>0.8754</v>
       </c>
       <c r="E6">
-        <v>1.10669994354248</v>
+        <v>1.193199992179871</v>
       </c>
       <c r="F6">
-        <v>0.7559999823570251</v>
+        <v>0.6590999960899353</v>
       </c>
       <c r="G6">
         <v>12.64</v>
       </c>
       <c r="H6">
-        <v>0.7679</v>
+        <v>0.4135</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -586,25 +586,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>905.7750244140625</v>
+        <v>873.2382202148438</v>
       </c>
       <c r="C7">
-        <v>0.9122</v>
+        <v>0.8794</v>
       </c>
       <c r="D7">
-        <v>0.9099000096321106</v>
+        <v>0.8737000226974487</v>
       </c>
       <c r="E7">
-        <v>1.018900036811829</v>
+        <v>1.094799995422363</v>
       </c>
       <c r="F7">
-        <v>0.8507999777793884</v>
+        <v>0.7120000123977661</v>
       </c>
       <c r="G7">
         <v>9.93</v>
       </c>
       <c r="H7">
-        <v>0.7193000000000001</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -612,25 +612,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>1006.508422851562</v>
+        <v>929.8483276367188</v>
       </c>
       <c r="C8">
-        <v>0.9019</v>
+        <v>0.8332000000000001</v>
       </c>
       <c r="D8">
-        <v>0.9013</v>
+        <v>0.8294</v>
       </c>
       <c r="E8">
-        <v>1.00820004940033</v>
+        <v>1.138299942016602</v>
       </c>
       <c r="F8">
-        <v>0.8295000195503235</v>
+        <v>0.7023000121116638</v>
       </c>
       <c r="G8">
         <v>11.16</v>
       </c>
       <c r="H8">
-        <v>0.6435999999999999</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -638,25 +638,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>7213.021484375</v>
+        <v>7173.69775390625</v>
       </c>
       <c r="C9">
-        <v>0.9296</v>
+        <v>0.9246</v>
       </c>
       <c r="D9">
-        <v>0.9121</v>
+        <v>0.8848</v>
       </c>
       <c r="E9">
-        <v>1.523900032043457</v>
+        <v>2.197400093078613</v>
       </c>
       <c r="F9">
-        <v>0.6571000218391418</v>
+        <v>0.5623999834060669</v>
       </c>
       <c r="G9">
         <v>77.59999999999999</v>
       </c>
       <c r="H9">
-        <v>5.379600000000001</v>
+        <v>3.963</v>
       </c>
     </row>
   </sheetData>
